--- a/supportdoc/RegularSwabbingRegistration.xlsx
+++ b/supportdoc/RegularSwabbingRegistration.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESG-ST9517\Desktop\Wuhan Virus\Restart document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esg-mz2346\Desktop\ESG M&amp;O\COVID\FAQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA4AD4C-F7E8-42E5-A0B1-2F57DF2A6E9B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6040" yWindow="2060" windowWidth="14400" windowHeight="7360"/>
+    <workbookView xWindow="8980" yWindow="490" windowWidth="10630" windowHeight="9950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="4" r:id="rId1"/>
     <sheet name="Employee details" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -191,136 +192,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Registration by 5 June 2020 for Regular Swab Tests in Early June For the Marine &amp; Offshore Sector only 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.As part of the phased and controlled restart of the Marine &amp; Offshore (M&amp;O) sector starting 2 June 2020, employers must ensure that certain segments of their employees undergo</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> regular swab tests</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to continue working in a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>COVID-Safe Workforce</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-2. The Health Promotion Board's online reigstration system is being developed for employers to book regular swabbing slots. In the interim, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>manual registration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> via the steps stated here is required to secure slots in the first round of regular swab tests starting in early June.
-3. This regular swab test exercise only applies to your M&amp;O employees who meet ALL the following criteria:
-i) M&amp;O Singapore Citizens/Permanent Residents/Employment Pass Holders/S Pass Holders/Work Permit Holders residing outside of dormitories, e.g. HDB, Private Residential Properties, Hotels; AND
-ii) Working on a production site, e.g. Project Managers, Engineers, Consultants, Contractors, Supervisors, Technicians, Operators, Craftsmen, etc, working on a Shipyard production site or Contractor workshop (please do not include employees who do not work on the production site on an ongoing basis, eg. HQ personnel, finance, admin, HR, etc.); AND
-iii) Who are approved by MTI to continue working, AND
-iv) Who are not on House Quarantine Order, 5-day MC, Stay Home Notice, or Leave of Absence as at </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>date of swab appointment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. The earliest eligible day for a swab appointment is T+4, where T is the day of your registration of the employee.
-4. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>For registration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, please follow the steps in Instructions to register your eligible employees for the swab tests from 1 to 5 June 2020. 
-5. Further advisories on the safe restart of the M&amp;O sector will be up on MTI’s website at a later date. A brief set of Frequently-asked questions for this swab test exercise is available below. Thank you.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Registration Steps
 </t>
     </r>
@@ -466,18 +337,199 @@
 5. Nationality of worker has to be spelt in full, e.g. Singaporean, Malaysian.
 6. Any incomplete (e.g. name not in full) or incorrect (e.g. wrong date format) entry will be voided and no appointment slot will be scheduled. 
 7. Please rename this file to "DDMMM_Company Name_MO", with DDMMM being the date of submission.
-8. Provide screenshot of the MTI approval status in the gobusiness portal
-9. For Marine work pass account holders, provide screenshot of their WPOL account with CPF number. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8. Provide screenshot of the MTI approval status in the GoBusiness portal
+9. Provide screenshot of Work Permit Online "Employer Details and Quota" showing "Industry: Marine Shipyard"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 10. By submitting this form to swab@edb.gov.sg, you are declaring that all employees submitted herein are eligible as per criteria 3 i) to iv) in the registration email.
 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Registration by 5 June 2020 for Regular Swab Tests in Early June For the Marine &amp; Offshore Sector only 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.As part of the phased and controlled restart of the Marine &amp; Offshore (M&amp;O) sector starting 2 June 2020, employers must ensure that certain segments of their employees undergo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> regular swab tests</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to continue working in a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COVID-Safe Workforce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+2. The Health Promotion Board's online reigstration system is being developed for employers to book regular swabbing slots. In the interim, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>manual registration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> via the steps stated here is required to secure slots in the first round of regular swab tests starting in early June.
+3. This regular swab test exercise only applies to your M&amp;O employees who meet ALL the following criteria:
+i) M&amp;O Singapore Citizens/Permanent Residents/Employment Pass Holders/S Pass Holders/Work Permit Holders residing outside of dormitories, e.g. HDB, Private Residential Properties, Hotels; AND
+ii) Working on a production site, e.g. Project Managers, Engineers, Consultants, Contractors, Supervisors, Technicians, Operators, Craftsmen, etc, working on a Shipyard production site or Contractor workshop (please do not include employees who do not work on the production site on an ongoing basis, eg. HQ personnel, finance, admin, HR, etc.); AND
+iii) Who are approved by MTI to continue working, AND
+iv) Who are not on House Quarantine Order, 5-day MC, Stay Home Notice, or Leave of Absence as at </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>date of swab appointment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. The earliest eligible day for a swab appointment is T+4, where T is the day of your registration of the employee.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>For registration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, please follow the steps in Instructions to register your eligible employees for the swab tests. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5. Advisories on the safe restart of the M&amp;O sector can be found in https://covid.gobusiness.gov.sg/safemanagement/sector/. </t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,6 +558,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -852,11 +919,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -867,17 +934,17 @@
   <sheetData>
     <row r="1" spans="2:2" ht="311" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" ht="234.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:2" ht="234.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="3" spans="2:2" ht="202.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="408.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -904,7 +971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
